--- a/public/daily-work.xlsx
+++ b/public/daily-work.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihun-causeworks/Developer/Git/daily-work/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihunio/Developer/Git/dailywork/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84339D03-AA12-B748-A4EF-123E8CC89ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2E3780-5928-EE44-85C8-945A127651EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="760" windowWidth="21040" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1047,7 +1047,7 @@
   <dimension ref="B1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1119,7 +1119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="49.5" customHeight="1" thickTop="1">
+    <row r="8" spans="2:6" ht="33.75" customHeight="1" thickTop="1">
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="12"/>

--- a/public/daily-work.xlsx
+++ b/public/daily-work.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihunio/Developer/Git/dailywork/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2E3780-5928-EE44-85C8-945A127651EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3613FC5C-41E2-B742-B619-1BB598A0A9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="760" windowWidth="21040" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,24 +71,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">완료
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(업무완료시  O)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>비고(진행사항 or 이슈사항 등)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -98,6 +80,24 @@
   </si>
   <si>
     <t>특이사항(신규 발생 업무 or 이슈사항 등)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">완료
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(업무완료시  O)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -162,10 +162,10 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1047,7 +1047,7 @@
   <dimension ref="B1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1113,10 +1113,10 @@
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="33.75" customHeight="1" thickTop="1">
@@ -1131,7 +1131,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="15"/>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="33.75" customHeight="1">
@@ -1152,19 +1152,19 @@
       <c r="D12" s="12"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="2:6" ht="31.5" customHeight="1">
+    <row r="13" spans="2:6" ht="33.75" customHeight="1">
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
       <c r="D13" s="12"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="2:6" ht="31.5" customHeight="1">
+    <row r="14" spans="2:6" ht="33.75" customHeight="1">
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="12"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="2:6" ht="31.5" customHeight="1">
+    <row r="15" spans="2:6" ht="33.75" customHeight="1">
       <c r="B15" s="32"/>
       <c r="C15" s="33"/>
       <c r="D15" s="13"/>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="16" spans="2:6" ht="31.5" customHeight="1" thickBot="1">
       <c r="B16" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
